--- a/GA_Parameters/ErForIterationCase.xlsx
+++ b/GA_Parameters/ErForIterationCase.xlsx
@@ -21,6 +21,11 @@
     <sheet name="Tpop50" sheetId="14" r:id="rId16"/>
     <sheet name="Tpop100" sheetId="15" r:id="rId17"/>
     <sheet name="Tpop200" sheetId="16" r:id="rId18"/>
+    <sheet name="Nodes_4050" sheetId="17" r:id="rId19"/>
+    <sheet name="Nodes_10050" sheetId="18" r:id="rId20"/>
+    <sheet name="Nodes_20050" sheetId="19" r:id="rId21"/>
+    <sheet name="Nodes_50050" sheetId="20" r:id="rId22"/>
+    <sheet name="Nodes_100050" sheetId="21" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -28,7 +33,517 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="680">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>BGA</t>
+  </si>
+  <si>
+    <t>EGA</t>
+  </si>
+  <si>
+    <t>Value1</t>
+  </si>
+  <si>
+    <t>Value2</t>
+  </si>
+  <si>
+    <t>Value3</t>
+  </si>
+  <si>
+    <t>Value4</t>
+  </si>
+  <si>
+    <t>Value5</t>
+  </si>
+  <si>
+    <t>Value6</t>
+  </si>
+  <si>
+    <t>Value7</t>
+  </si>
+  <si>
+    <t>Value8</t>
+  </si>
+  <si>
+    <t>Value9</t>
+  </si>
+  <si>
+    <t>Value10</t>
+  </si>
+  <si>
+    <t>Value11</t>
+  </si>
+  <si>
+    <t>Value12</t>
+  </si>
+  <si>
+    <t>Value13</t>
+  </si>
+  <si>
+    <t>Value14</t>
+  </si>
+  <si>
+    <t>Value15</t>
+  </si>
+  <si>
+    <t>Value16</t>
+  </si>
+  <si>
+    <t>Value17</t>
+  </si>
+  <si>
+    <t>Value18</t>
+  </si>
+  <si>
+    <t>Value19</t>
+  </si>
+  <si>
+    <t>Value20</t>
+  </si>
+  <si>
+    <t>Value21</t>
+  </si>
+  <si>
+    <t>Value22</t>
+  </si>
+  <si>
+    <t>Value23</t>
+  </si>
+  <si>
+    <t>Value24</t>
+  </si>
+  <si>
+    <t>Value25</t>
+  </si>
+  <si>
+    <t>Value26</t>
+  </si>
+  <si>
+    <t>Value27</t>
+  </si>
+  <si>
+    <t>Value28</t>
+  </si>
+  <si>
+    <t>Value29</t>
+  </si>
+  <si>
+    <t>Value30</t>
+  </si>
+  <si>
+    <t>Moyenne</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>BGA</t>
+  </si>
+  <si>
+    <t>EGA</t>
+  </si>
+  <si>
+    <t>Value1</t>
+  </si>
+  <si>
+    <t>Value2</t>
+  </si>
+  <si>
+    <t>Value3</t>
+  </si>
+  <si>
+    <t>Value4</t>
+  </si>
+  <si>
+    <t>Value5</t>
+  </si>
+  <si>
+    <t>Value6</t>
+  </si>
+  <si>
+    <t>Value7</t>
+  </si>
+  <si>
+    <t>Value8</t>
+  </si>
+  <si>
+    <t>Value9</t>
+  </si>
+  <si>
+    <t>Value10</t>
+  </si>
+  <si>
+    <t>Value11</t>
+  </si>
+  <si>
+    <t>Value12</t>
+  </si>
+  <si>
+    <t>Value13</t>
+  </si>
+  <si>
+    <t>Value14</t>
+  </si>
+  <si>
+    <t>Value15</t>
+  </si>
+  <si>
+    <t>Value16</t>
+  </si>
+  <si>
+    <t>Value17</t>
+  </si>
+  <si>
+    <t>Value18</t>
+  </si>
+  <si>
+    <t>Value19</t>
+  </si>
+  <si>
+    <t>Value20</t>
+  </si>
+  <si>
+    <t>Value21</t>
+  </si>
+  <si>
+    <t>Value22</t>
+  </si>
+  <si>
+    <t>Value23</t>
+  </si>
+  <si>
+    <t>Value24</t>
+  </si>
+  <si>
+    <t>Value25</t>
+  </si>
+  <si>
+    <t>Value26</t>
+  </si>
+  <si>
+    <t>Value27</t>
+  </si>
+  <si>
+    <t>Value28</t>
+  </si>
+  <si>
+    <t>Value29</t>
+  </si>
+  <si>
+    <t>Value30</t>
+  </si>
+  <si>
+    <t>Moyenne</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>BGA</t>
+  </si>
+  <si>
+    <t>EGA</t>
+  </si>
+  <si>
+    <t>Value1</t>
+  </si>
+  <si>
+    <t>Value2</t>
+  </si>
+  <si>
+    <t>Value3</t>
+  </si>
+  <si>
+    <t>Value4</t>
+  </si>
+  <si>
+    <t>Value5</t>
+  </si>
+  <si>
+    <t>Value6</t>
+  </si>
+  <si>
+    <t>Value7</t>
+  </si>
+  <si>
+    <t>Value8</t>
+  </si>
+  <si>
+    <t>Value9</t>
+  </si>
+  <si>
+    <t>Value10</t>
+  </si>
+  <si>
+    <t>Value11</t>
+  </si>
+  <si>
+    <t>Value12</t>
+  </si>
+  <si>
+    <t>Value13</t>
+  </si>
+  <si>
+    <t>Value14</t>
+  </si>
+  <si>
+    <t>Value15</t>
+  </si>
+  <si>
+    <t>Value16</t>
+  </si>
+  <si>
+    <t>Value17</t>
+  </si>
+  <si>
+    <t>Value18</t>
+  </si>
+  <si>
+    <t>Value19</t>
+  </si>
+  <si>
+    <t>Value20</t>
+  </si>
+  <si>
+    <t>Value21</t>
+  </si>
+  <si>
+    <t>Value22</t>
+  </si>
+  <si>
+    <t>Value23</t>
+  </si>
+  <si>
+    <t>Value24</t>
+  </si>
+  <si>
+    <t>Value25</t>
+  </si>
+  <si>
+    <t>Value26</t>
+  </si>
+  <si>
+    <t>Value27</t>
+  </si>
+  <si>
+    <t>Value28</t>
+  </si>
+  <si>
+    <t>Value29</t>
+  </si>
+  <si>
+    <t>Value30</t>
+  </si>
+  <si>
+    <t>Moyenne</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>BGA</t>
+  </si>
+  <si>
+    <t>EGA</t>
+  </si>
+  <si>
+    <t>Value1</t>
+  </si>
+  <si>
+    <t>Value2</t>
+  </si>
+  <si>
+    <t>Value3</t>
+  </si>
+  <si>
+    <t>Value4</t>
+  </si>
+  <si>
+    <t>Value5</t>
+  </si>
+  <si>
+    <t>Value6</t>
+  </si>
+  <si>
+    <t>Value7</t>
+  </si>
+  <si>
+    <t>Value8</t>
+  </si>
+  <si>
+    <t>Value9</t>
+  </si>
+  <si>
+    <t>Value10</t>
+  </si>
+  <si>
+    <t>Value11</t>
+  </si>
+  <si>
+    <t>Value12</t>
+  </si>
+  <si>
+    <t>Value13</t>
+  </si>
+  <si>
+    <t>Value14</t>
+  </si>
+  <si>
+    <t>Value15</t>
+  </si>
+  <si>
+    <t>Value16</t>
+  </si>
+  <si>
+    <t>Value17</t>
+  </si>
+  <si>
+    <t>Value18</t>
+  </si>
+  <si>
+    <t>Value19</t>
+  </si>
+  <si>
+    <t>Value20</t>
+  </si>
+  <si>
+    <t>Value21</t>
+  </si>
+  <si>
+    <t>Value22</t>
+  </si>
+  <si>
+    <t>Value23</t>
+  </si>
+  <si>
+    <t>Value24</t>
+  </si>
+  <si>
+    <t>Value25</t>
+  </si>
+  <si>
+    <t>Value26</t>
+  </si>
+  <si>
+    <t>Value27</t>
+  </si>
+  <si>
+    <t>Value28</t>
+  </si>
+  <si>
+    <t>Value29</t>
+  </si>
+  <si>
+    <t>Value30</t>
+  </si>
+  <si>
+    <t>Moyenne</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>BGA</t>
+  </si>
+  <si>
+    <t>EGA</t>
+  </si>
+  <si>
+    <t>Value1</t>
+  </si>
+  <si>
+    <t>Value2</t>
+  </si>
+  <si>
+    <t>Value3</t>
+  </si>
+  <si>
+    <t>Value4</t>
+  </si>
+  <si>
+    <t>Value5</t>
+  </si>
+  <si>
+    <t>Value6</t>
+  </si>
+  <si>
+    <t>Value7</t>
+  </si>
+  <si>
+    <t>Value8</t>
+  </si>
+  <si>
+    <t>Value9</t>
+  </si>
+  <si>
+    <t>Value10</t>
+  </si>
+  <si>
+    <t>Value11</t>
+  </si>
+  <si>
+    <t>Value12</t>
+  </si>
+  <si>
+    <t>Value13</t>
+  </si>
+  <si>
+    <t>Value14</t>
+  </si>
+  <si>
+    <t>Value15</t>
+  </si>
+  <si>
+    <t>Value16</t>
+  </si>
+  <si>
+    <t>Value17</t>
+  </si>
+  <si>
+    <t>Value18</t>
+  </si>
+  <si>
+    <t>Value19</t>
+  </si>
+  <si>
+    <t>Value20</t>
+  </si>
+  <si>
+    <t>Value21</t>
+  </si>
+  <si>
+    <t>Value22</t>
+  </si>
+  <si>
+    <t>Value23</t>
+  </si>
+  <si>
+    <t>Value24</t>
+  </si>
+  <si>
+    <t>Value25</t>
+  </si>
+  <si>
+    <t>Value26</t>
+  </si>
+  <si>
+    <t>Value27</t>
+  </si>
+  <si>
+    <t>Value28</t>
+  </si>
+  <si>
+    <t>Value29</t>
+  </si>
+  <si>
+    <t>Value30</t>
+  </si>
+  <si>
+    <t>Moyenne</t>
+  </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3960,6 +4475,1017 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AF3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="true"/>
+    <col min="2" max="2" width="10.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
+    <col min="10" max="10" width="11.7109375" customWidth="true"/>
+    <col min="11" max="11" width="11.7109375" customWidth="true"/>
+    <col min="12" max="12" width="11.7109375" customWidth="true"/>
+    <col min="13" max="13" width="11.7109375" customWidth="true"/>
+    <col min="14" max="14" width="11.7109375" customWidth="true"/>
+    <col min="15" max="15" width="11.7109375" customWidth="true"/>
+    <col min="16" max="16" width="11.7109375" customWidth="true"/>
+    <col min="17" max="17" width="11.7109375" customWidth="true"/>
+    <col min="18" max="18" width="11.7109375" customWidth="true"/>
+    <col min="19" max="19" width="11.7109375" customWidth="true"/>
+    <col min="20" max="20" width="11.7109375" customWidth="true"/>
+    <col min="21" max="21" width="11.7109375" customWidth="true"/>
+    <col min="22" max="22" width="11.7109375" customWidth="true"/>
+    <col min="23" max="23" width="10.7109375" customWidth="true"/>
+    <col min="24" max="24" width="11.7109375" customWidth="true"/>
+    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="26" max="26" width="11.7109375" customWidth="true"/>
+    <col min="27" max="27" width="11.7109375" customWidth="true"/>
+    <col min="28" max="28" width="11.7109375" customWidth="true"/>
+    <col min="29" max="29" width="11.7109375" customWidth="true"/>
+    <col min="30" max="30" width="11.7109375" customWidth="true"/>
+    <col min="31" max="31" width="11.7109375" customWidth="true"/>
+    <col min="32" max="32" width="11.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="B2" s="0">
+        <v>5.0348160198803589</v>
+      </c>
+      <c r="C2" s="0">
+        <v>3.3497102817362578</v>
+      </c>
+      <c r="D2" s="0">
+        <v>4.0363873271416821</v>
+      </c>
+      <c r="E2" s="0">
+        <v>2.78488795514617</v>
+      </c>
+      <c r="F2" s="0">
+        <v>4.9331097344734518</v>
+      </c>
+      <c r="G2" s="0">
+        <v>6.48991946217809</v>
+      </c>
+      <c r="H2" s="0">
+        <v>2.6363924668497112</v>
+      </c>
+      <c r="I2" s="0">
+        <v>6.3645260991010844</v>
+      </c>
+      <c r="J2" s="0">
+        <v>3.2252075815715671</v>
+      </c>
+      <c r="K2" s="0">
+        <v>5.2679507318850742</v>
+      </c>
+      <c r="L2" s="0">
+        <v>5.9628480976750637</v>
+      </c>
+      <c r="M2" s="0">
+        <v>7.3773221091968439</v>
+      </c>
+      <c r="N2" s="0">
+        <v>2.7689752666797234</v>
+      </c>
+      <c r="O2" s="0">
+        <v>3.0514925394599621</v>
+      </c>
+      <c r="P2" s="0">
+        <v>5.1778225177420252</v>
+      </c>
+      <c r="Q2" s="0">
+        <v>3.1312031865314292</v>
+      </c>
+      <c r="R2" s="0">
+        <v>2.5542373089421875</v>
+      </c>
+      <c r="S2" s="0">
+        <v>2.9521231056659105</v>
+      </c>
+      <c r="T2" s="0">
+        <v>3.5804189478183908</v>
+      </c>
+      <c r="U2" s="0">
+        <v>6.4303335590279351</v>
+      </c>
+      <c r="V2" s="0">
+        <v>4.5049780009612501</v>
+      </c>
+      <c r="W2" s="0">
+        <v>4.4325755702771179</v>
+      </c>
+      <c r="X2" s="0">
+        <v>3.5356085094580623</v>
+      </c>
+      <c r="Y2" s="0">
+        <v>5.1034672681334898</v>
+      </c>
+      <c r="Z2" s="0">
+        <v>4.4580973286638068</v>
+      </c>
+      <c r="AA2" s="0">
+        <v>5.3340221048558636</v>
+      </c>
+      <c r="AB2" s="0">
+        <v>8.2148648037054137</v>
+      </c>
+      <c r="AC2" s="0">
+        <v>4.3759406619155428</v>
+      </c>
+      <c r="AD2" s="0">
+        <v>4.8726608961234215</v>
+      </c>
+      <c r="AE2" s="0">
+        <v>2.7740687534934807</v>
+      </c>
+      <c r="AF2" s="0">
+        <v>4.490532273209678</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.27552253629754714</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.32946793256088941</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.39384530463892498</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.30152597198042425</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.26974936933869015</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0.27844138806590951</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0.25418938858139573</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0.28335963070155579</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0.3088928280758057</v>
+      </c>
+      <c r="K3" s="0">
+        <v>0.29556826051732304</v>
+      </c>
+      <c r="L3" s="0">
+        <v>0.25410604076451576</v>
+      </c>
+      <c r="M3" s="0">
+        <v>0.2331158089480615</v>
+      </c>
+      <c r="N3" s="0">
+        <v>0.26147245659120016</v>
+      </c>
+      <c r="O3" s="0">
+        <v>0.25480514083198363</v>
+      </c>
+      <c r="P3" s="0">
+        <v>0.27129289612855828</v>
+      </c>
+      <c r="Q3" s="0">
+        <v>0.23657409993009113</v>
+      </c>
+      <c r="R3" s="0">
+        <v>0.2166354609190547</v>
+      </c>
+      <c r="S3" s="0">
+        <v>0.26204400960415608</v>
+      </c>
+      <c r="T3" s="0">
+        <v>0.25660584203472775</v>
+      </c>
+      <c r="U3" s="0">
+        <v>0.2952878915699369</v>
+      </c>
+      <c r="V3" s="0">
+        <v>0.25978374898328349</v>
+      </c>
+      <c r="W3" s="0">
+        <v>0.2674025481610347</v>
+      </c>
+      <c r="X3" s="0">
+        <v>0.24233368278055312</v>
+      </c>
+      <c r="Y3" s="0">
+        <v>0.28157184888473419</v>
+      </c>
+      <c r="Z3" s="0">
+        <v>0.25479852896125249</v>
+      </c>
+      <c r="AA3" s="0">
+        <v>0.22414168350232802</v>
+      </c>
+      <c r="AB3" s="0">
+        <v>0.27708317206558936</v>
+      </c>
+      <c r="AC3" s="0">
+        <v>0.23803426900803529</v>
+      </c>
+      <c r="AD3" s="0">
+        <v>0.23470780552747028</v>
+      </c>
+      <c r="AE3" s="0">
+        <v>0.30242753831197805</v>
+      </c>
+      <c r="AF3" s="0">
+        <v>0.27049290280890037</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AF3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
+    <col min="10" max="10" width="11.7109375" customWidth="true"/>
+    <col min="11" max="11" width="11.7109375" customWidth="true"/>
+    <col min="12" max="12" width="11.7109375" customWidth="true"/>
+    <col min="13" max="13" width="11.7109375" customWidth="true"/>
+    <col min="14" max="14" width="11.7109375" customWidth="true"/>
+    <col min="15" max="15" width="11.7109375" customWidth="true"/>
+    <col min="16" max="16" width="11.7109375" customWidth="true"/>
+    <col min="17" max="17" width="11.7109375" customWidth="true"/>
+    <col min="18" max="18" width="11.7109375" customWidth="true"/>
+    <col min="19" max="19" width="9.7109375" customWidth="true"/>
+    <col min="20" max="20" width="11.7109375" customWidth="true"/>
+    <col min="21" max="21" width="11.7109375" customWidth="true"/>
+    <col min="22" max="22" width="11.7109375" customWidth="true"/>
+    <col min="23" max="23" width="11.7109375" customWidth="true"/>
+    <col min="24" max="24" width="11.7109375" customWidth="true"/>
+    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="26" max="26" width="11.7109375" customWidth="true"/>
+    <col min="27" max="27" width="11.7109375" customWidth="true"/>
+    <col min="28" max="28" width="11.7109375" customWidth="true"/>
+    <col min="29" max="29" width="10.7109375" customWidth="true"/>
+    <col min="30" max="30" width="11.7109375" customWidth="true"/>
+    <col min="31" max="31" width="10.7109375" customWidth="true"/>
+    <col min="32" max="32" width="11.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="B2" s="0">
+        <v>5.2042496571302612</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4.4623146948565955</v>
+      </c>
+      <c r="D2" s="0">
+        <v>4.9682908727580219</v>
+      </c>
+      <c r="E2" s="0">
+        <v>4.1685548942054096</v>
+      </c>
+      <c r="F2" s="0">
+        <v>5.4641440768230476</v>
+      </c>
+      <c r="G2" s="0">
+        <v>6.696848083638951</v>
+      </c>
+      <c r="H2" s="0">
+        <v>5.3728365034738355</v>
+      </c>
+      <c r="I2" s="0">
+        <v>4.8477102311709235</v>
+      </c>
+      <c r="J2" s="0">
+        <v>5.1672278366817084</v>
+      </c>
+      <c r="K2" s="0">
+        <v>4.4752475557534188</v>
+      </c>
+      <c r="L2" s="0">
+        <v>4.5765316631293649</v>
+      </c>
+      <c r="M2" s="0">
+        <v>5.6224204928281338</v>
+      </c>
+      <c r="N2" s="0">
+        <v>5.3286811409577428</v>
+      </c>
+      <c r="O2" s="0">
+        <v>5.7948472584132604</v>
+      </c>
+      <c r="P2" s="0">
+        <v>5.3030443780792726</v>
+      </c>
+      <c r="Q2" s="0">
+        <v>4.3484137167172801</v>
+      </c>
+      <c r="R2" s="0">
+        <v>5.1779115817154837</v>
+      </c>
+      <c r="S2" s="0">
+        <v>5.4612666004251267</v>
+      </c>
+      <c r="T2" s="0">
+        <v>6.563672533859612</v>
+      </c>
+      <c r="U2" s="0">
+        <v>5.2157661740601302</v>
+      </c>
+      <c r="V2" s="0">
+        <v>4.5190332520001846</v>
+      </c>
+      <c r="W2" s="0">
+        <v>4.9162770245326479</v>
+      </c>
+      <c r="X2" s="0">
+        <v>4.9523614813977348</v>
+      </c>
+      <c r="Y2" s="0">
+        <v>4.5164189142065911</v>
+      </c>
+      <c r="Z2" s="0">
+        <v>4.7371197125500082</v>
+      </c>
+      <c r="AA2" s="0">
+        <v>4.7787955636033868</v>
+      </c>
+      <c r="AB2" s="0">
+        <v>6.0399739964855161</v>
+      </c>
+      <c r="AC2" s="0">
+        <v>4.5771706802093126</v>
+      </c>
+      <c r="AD2" s="0">
+        <v>5.3048201030589048</v>
+      </c>
+      <c r="AE2" s="0">
+        <v>4.9123188101759219</v>
+      </c>
+      <c r="AF2" s="0">
+        <v>5.115808982829928</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.35498778259509473</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.39443994992016945</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.36331746268938747</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.35174708169628033</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.3726865794075544</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0.3456995277340883</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0.35686342268449051</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0.36710196371093579</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0.34228379073438864</v>
+      </c>
+      <c r="K3" s="0">
+        <v>0.36456558996051008</v>
+      </c>
+      <c r="L3" s="0">
+        <v>0.36231095464143359</v>
+      </c>
+      <c r="M3" s="0">
+        <v>0.35437769545313053</v>
+      </c>
+      <c r="N3" s="0">
+        <v>0.35843388408728705</v>
+      </c>
+      <c r="O3" s="0">
+        <v>0.34965421209229952</v>
+      </c>
+      <c r="P3" s="0">
+        <v>0.36785164827490596</v>
+      </c>
+      <c r="Q3" s="0">
+        <v>0.38198766583691712</v>
+      </c>
+      <c r="R3" s="0">
+        <v>0.32390867103128002</v>
+      </c>
+      <c r="S3" s="0">
+        <v>0.35431652482685067</v>
+      </c>
+      <c r="T3" s="0">
+        <v>0.3711682975789064</v>
+      </c>
+      <c r="U3" s="0">
+        <v>0.37597168069132197</v>
+      </c>
+      <c r="V3" s="0">
+        <v>0.36820482704569651</v>
+      </c>
+      <c r="W3" s="0">
+        <v>0.37499299576489786</v>
+      </c>
+      <c r="X3" s="0">
+        <v>0.35177492422838991</v>
+      </c>
+      <c r="Y3" s="0">
+        <v>0.37472578872822082</v>
+      </c>
+      <c r="Z3" s="0">
+        <v>0.37401746310905321</v>
+      </c>
+      <c r="AA3" s="0">
+        <v>0.36492533601060506</v>
+      </c>
+      <c r="AB3" s="0">
+        <v>0.3543912430211536</v>
+      </c>
+      <c r="AC3" s="0">
+        <v>0.37600800437292436</v>
+      </c>
+      <c r="AD3" s="0">
+        <v>0.34848357392903445</v>
+      </c>
+      <c r="AE3" s="0">
+        <v>0.39690199896412481</v>
+      </c>
+      <c r="AF3" s="0">
+        <v>0.36327001802737768</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AF3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="10.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
+    <col min="10" max="10" width="11.7109375" customWidth="true"/>
+    <col min="11" max="11" width="11.7109375" customWidth="true"/>
+    <col min="12" max="12" width="11.7109375" customWidth="true"/>
+    <col min="13" max="13" width="11.7109375" customWidth="true"/>
+    <col min="14" max="14" width="10.7109375" customWidth="true"/>
+    <col min="15" max="15" width="11.7109375" customWidth="true"/>
+    <col min="16" max="16" width="11.7109375" customWidth="true"/>
+    <col min="17" max="17" width="11.7109375" customWidth="true"/>
+    <col min="18" max="18" width="11.7109375" customWidth="true"/>
+    <col min="19" max="19" width="10.7109375" customWidth="true"/>
+    <col min="20" max="20" width="11.7109375" customWidth="true"/>
+    <col min="21" max="21" width="11.7109375" customWidth="true"/>
+    <col min="22" max="22" width="11.7109375" customWidth="true"/>
+    <col min="23" max="23" width="11.7109375" customWidth="true"/>
+    <col min="24" max="24" width="11.7109375" customWidth="true"/>
+    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="26" max="26" width="11.7109375" customWidth="true"/>
+    <col min="27" max="27" width="9.7109375" customWidth="true"/>
+    <col min="28" max="28" width="11.7109375" customWidth="true"/>
+    <col min="29" max="29" width="11.7109375" customWidth="true"/>
+    <col min="30" max="30" width="11.7109375" customWidth="true"/>
+    <col min="31" max="31" width="11.7109375" customWidth="true"/>
+    <col min="32" max="32" width="11.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="B2" s="0">
+        <v>4.9382365536786654</v>
+      </c>
+      <c r="C2" s="0">
+        <v>6.2029485898001955</v>
+      </c>
+      <c r="D2" s="0">
+        <v>6.3627061073497178</v>
+      </c>
+      <c r="E2" s="0">
+        <v>5.0971687962152634</v>
+      </c>
+      <c r="F2" s="0">
+        <v>6.3039427537995625</v>
+      </c>
+      <c r="G2" s="0">
+        <v>5.1435280060736863</v>
+      </c>
+      <c r="H2" s="0">
+        <v>4.883315739494738</v>
+      </c>
+      <c r="I2" s="0">
+        <v>5.1046486238320892</v>
+      </c>
+      <c r="J2" s="0">
+        <v>5.8775213210217201</v>
+      </c>
+      <c r="K2" s="0">
+        <v>5.3992667632780549</v>
+      </c>
+      <c r="L2" s="0">
+        <v>5.6725660915889335</v>
+      </c>
+      <c r="M2" s="0">
+        <v>6.1064100384206217</v>
+      </c>
+      <c r="N2" s="0">
+        <v>4.8891788196115469</v>
+      </c>
+      <c r="O2" s="0">
+        <v>5.640476731907822</v>
+      </c>
+      <c r="P2" s="0">
+        <v>5.5890613341884077</v>
+      </c>
+      <c r="Q2" s="0">
+        <v>5.8546830460603276</v>
+      </c>
+      <c r="R2" s="0">
+        <v>4.7618261412088065</v>
+      </c>
+      <c r="S2" s="0">
+        <v>4.802990820096193</v>
+      </c>
+      <c r="T2" s="0">
+        <v>5.2420411260003146</v>
+      </c>
+      <c r="U2" s="0">
+        <v>5.2944815970400185</v>
+      </c>
+      <c r="V2" s="0">
+        <v>5.2461268157400376</v>
+      </c>
+      <c r="W2" s="0">
+        <v>5.3700079291933509</v>
+      </c>
+      <c r="X2" s="0">
+        <v>5.2100750410477588</v>
+      </c>
+      <c r="Y2" s="0">
+        <v>5.7226481013195318</v>
+      </c>
+      <c r="Z2" s="0">
+        <v>5.5263422520748549</v>
+      </c>
+      <c r="AA2" s="0">
+        <v>5.864267299724629</v>
+      </c>
+      <c r="AB2" s="0">
+        <v>5.8330007219134705</v>
+      </c>
+      <c r="AC2" s="0">
+        <v>5.3950782730170683</v>
+      </c>
+      <c r="AD2" s="0">
+        <v>5.2553467861469736</v>
+      </c>
+      <c r="AE2" s="0">
+        <v>5.4544036935788727</v>
+      </c>
+      <c r="AF2" s="0">
+        <v>5.468143197147441</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.42226152896843472</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.44918448332322375</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.44445040147465775</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.41732321341045403</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.44282318577262136</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0.45548541580223345</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0.40538852352400223</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0.41346347140599438</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0.41969105596346523</v>
+      </c>
+      <c r="K3" s="0">
+        <v>0.44305618471844943</v>
+      </c>
+      <c r="L3" s="0">
+        <v>0.4237154634077821</v>
+      </c>
+      <c r="M3" s="0">
+        <v>0.41344763288510988</v>
+      </c>
+      <c r="N3" s="0">
+        <v>0.43820174895641245</v>
+      </c>
+      <c r="O3" s="0">
+        <v>0.41411981825582644</v>
+      </c>
+      <c r="P3" s="0">
+        <v>0.41839139774819084</v>
+      </c>
+      <c r="Q3" s="0">
+        <v>0.42534724492418102</v>
+      </c>
+      <c r="R3" s="0">
+        <v>0.43187716346067956</v>
+      </c>
+      <c r="S3" s="0">
+        <v>0.44731550817302379</v>
+      </c>
+      <c r="T3" s="0">
+        <v>0.45184100836519214</v>
+      </c>
+      <c r="U3" s="0">
+        <v>0.40585003898249888</v>
+      </c>
+      <c r="V3" s="0">
+        <v>0.42774483367453564</v>
+      </c>
+      <c r="W3" s="0">
+        <v>0.4146611592133051</v>
+      </c>
+      <c r="X3" s="0">
+        <v>0.42403358467895574</v>
+      </c>
+      <c r="Y3" s="0">
+        <v>0.42644594959893239</v>
+      </c>
+      <c r="Z3" s="0">
+        <v>0.44779940639447524</v>
+      </c>
+      <c r="AA3" s="0">
+        <v>0.41857252552259439</v>
+      </c>
+      <c r="AB3" s="0">
+        <v>0.41318803676337951</v>
+      </c>
+      <c r="AC3" s="0">
+        <v>0.43930400553846438</v>
+      </c>
+      <c r="AD3" s="0">
+        <v>0.43986659961078639</v>
+      </c>
+      <c r="AE3" s="0">
+        <v>0.43904769254768111</v>
+      </c>
+      <c r="AF3" s="0">
+        <v>0.42912994276885141</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF3"/>
@@ -4291,6 +5817,680 @@
       </c>
       <c r="AF3" s="0">
         <v>0.39641068309405958</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AF3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
+    <col min="10" max="10" width="11.7109375" customWidth="true"/>
+    <col min="11" max="11" width="11.7109375" customWidth="true"/>
+    <col min="12" max="12" width="11.7109375" customWidth="true"/>
+    <col min="13" max="13" width="10.7109375" customWidth="true"/>
+    <col min="14" max="14" width="11.7109375" customWidth="true"/>
+    <col min="15" max="15" width="11.7109375" customWidth="true"/>
+    <col min="16" max="16" width="11.7109375" customWidth="true"/>
+    <col min="17" max="17" width="11.7109375" customWidth="true"/>
+    <col min="18" max="18" width="11.7109375" customWidth="true"/>
+    <col min="19" max="19" width="11.7109375" customWidth="true"/>
+    <col min="20" max="20" width="11.7109375" customWidth="true"/>
+    <col min="21" max="21" width="11.7109375" customWidth="true"/>
+    <col min="22" max="22" width="11.7109375" customWidth="true"/>
+    <col min="23" max="23" width="11.7109375" customWidth="true"/>
+    <col min="24" max="24" width="11.7109375" customWidth="true"/>
+    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="26" max="26" width="10.7109375" customWidth="true"/>
+    <col min="27" max="27" width="11.7109375" customWidth="true"/>
+    <col min="28" max="28" width="11.7109375" customWidth="true"/>
+    <col min="29" max="29" width="11.7109375" customWidth="true"/>
+    <col min="30" max="30" width="11.7109375" customWidth="true"/>
+    <col min="31" max="31" width="11.7109375" customWidth="true"/>
+    <col min="32" max="32" width="11.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="B2" s="0">
+        <v>5.2467150790698858</v>
+      </c>
+      <c r="C2" s="0">
+        <v>5.5236847230784463</v>
+      </c>
+      <c r="D2" s="0">
+        <v>5.8462039352977468</v>
+      </c>
+      <c r="E2" s="0">
+        <v>5.5998201543244486</v>
+      </c>
+      <c r="F2" s="0">
+        <v>5.0850556189953666</v>
+      </c>
+      <c r="G2" s="0">
+        <v>5.3512173222470505</v>
+      </c>
+      <c r="H2" s="0">
+        <v>5.7669262519409763</v>
+      </c>
+      <c r="I2" s="0">
+        <v>5.671841371185236</v>
+      </c>
+      <c r="J2" s="0">
+        <v>5.0912098528875092</v>
+      </c>
+      <c r="K2" s="0">
+        <v>5.3174818174894884</v>
+      </c>
+      <c r="L2" s="0">
+        <v>5.4044761947131637</v>
+      </c>
+      <c r="M2" s="0">
+        <v>5.949926429745128</v>
+      </c>
+      <c r="N2" s="0">
+        <v>5.5247240083097173</v>
+      </c>
+      <c r="O2" s="0">
+        <v>5.3507689521741009</v>
+      </c>
+      <c r="P2" s="0">
+        <v>5.9109559349773351</v>
+      </c>
+      <c r="Q2" s="0">
+        <v>5.7286971318129591</v>
+      </c>
+      <c r="R2" s="0">
+        <v>5.5119812253839333</v>
+      </c>
+      <c r="S2" s="0">
+        <v>5.4580888079160426</v>
+      </c>
+      <c r="T2" s="0">
+        <v>5.138519959301755</v>
+      </c>
+      <c r="U2" s="0">
+        <v>5.8329812284521925</v>
+      </c>
+      <c r="V2" s="0">
+        <v>5.5220895918483164</v>
+      </c>
+      <c r="W2" s="0">
+        <v>5.5688967912164955</v>
+      </c>
+      <c r="X2" s="0">
+        <v>5.1120650594844497</v>
+      </c>
+      <c r="Y2" s="0">
+        <v>5.6625130265748638</v>
+      </c>
+      <c r="Z2" s="0">
+        <v>5.9276018496223051</v>
+      </c>
+      <c r="AA2" s="0">
+        <v>5.5349723010804688</v>
+      </c>
+      <c r="AB2" s="0">
+        <v>5.8526560072512943</v>
+      </c>
+      <c r="AC2" s="0">
+        <v>5.7478927875221748</v>
+      </c>
+      <c r="AD2" s="0">
+        <v>5.4381797832238536</v>
+      </c>
+      <c r="AE2" s="0">
+        <v>5.7883010066828522</v>
+      </c>
+      <c r="AF2" s="0">
+        <v>5.5488814734603187</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.42362297634813728</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.41638572704592663</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.46294132700094809</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.43360274561245005</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.4404812070860229</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0.4357853186904127</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0.43651075218251506</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0.44043862322953237</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0.43119966847026647</v>
+      </c>
+      <c r="K3" s="0">
+        <v>0.41922559139376153</v>
+      </c>
+      <c r="L3" s="0">
+        <v>0.41917272892215224</v>
+      </c>
+      <c r="M3" s="0">
+        <v>0.44018736933096853</v>
+      </c>
+      <c r="N3" s="0">
+        <v>0.41280977448337225</v>
+      </c>
+      <c r="O3" s="0">
+        <v>0.42764465418790065</v>
+      </c>
+      <c r="P3" s="0">
+        <v>0.42285981892595992</v>
+      </c>
+      <c r="Q3" s="0">
+        <v>0.41880205477600219</v>
+      </c>
+      <c r="R3" s="0">
+        <v>0.4209172295159585</v>
+      </c>
+      <c r="S3" s="0">
+        <v>0.43821045778125955</v>
+      </c>
+      <c r="T3" s="0">
+        <v>0.44991629191653387</v>
+      </c>
+      <c r="U3" s="0">
+        <v>0.41579588493718889</v>
+      </c>
+      <c r="V3" s="0">
+        <v>0.43541482902644474</v>
+      </c>
+      <c r="W3" s="0">
+        <v>0.41065760964319364</v>
+      </c>
+      <c r="X3" s="0">
+        <v>0.41846556070739171</v>
+      </c>
+      <c r="Y3" s="0">
+        <v>0.44100499351844524</v>
+      </c>
+      <c r="Z3" s="0">
+        <v>0.44058647933166784</v>
+      </c>
+      <c r="AA3" s="0">
+        <v>0.42741724626268007</v>
+      </c>
+      <c r="AB3" s="0">
+        <v>0.4262550275448645</v>
+      </c>
+      <c r="AC3" s="0">
+        <v>0.42112317434874447</v>
+      </c>
+      <c r="AD3" s="0">
+        <v>0.43744205359018323</v>
+      </c>
+      <c r="AE3" s="0">
+        <v>0.43378009111570492</v>
+      </c>
+      <c r="AF3" s="0">
+        <v>0.42995524223088644</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AF3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="10.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
+    <col min="10" max="10" width="11.7109375" customWidth="true"/>
+    <col min="11" max="11" width="11.7109375" customWidth="true"/>
+    <col min="12" max="12" width="11.7109375" customWidth="true"/>
+    <col min="13" max="13" width="11.7109375" customWidth="true"/>
+    <col min="14" max="14" width="11.7109375" customWidth="true"/>
+    <col min="15" max="15" width="10.7109375" customWidth="true"/>
+    <col min="16" max="16" width="11.7109375" customWidth="true"/>
+    <col min="17" max="17" width="11.7109375" customWidth="true"/>
+    <col min="18" max="18" width="11.7109375" customWidth="true"/>
+    <col min="19" max="19" width="11.7109375" customWidth="true"/>
+    <col min="20" max="20" width="11.7109375" customWidth="true"/>
+    <col min="21" max="21" width="11.7109375" customWidth="true"/>
+    <col min="22" max="22" width="11.7109375" customWidth="true"/>
+    <col min="23" max="23" width="11.7109375" customWidth="true"/>
+    <col min="24" max="24" width="11.7109375" customWidth="true"/>
+    <col min="25" max="25" width="10.7109375" customWidth="true"/>
+    <col min="26" max="26" width="11.7109375" customWidth="true"/>
+    <col min="27" max="27" width="11.7109375" customWidth="true"/>
+    <col min="28" max="28" width="10.7109375" customWidth="true"/>
+    <col min="29" max="29" width="11.7109375" customWidth="true"/>
+    <col min="30" max="30" width="11.7109375" customWidth="true"/>
+    <col min="31" max="31" width="10.7109375" customWidth="true"/>
+    <col min="32" max="32" width="10.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="B2" s="0">
+        <v>5.6609812767605217</v>
+      </c>
+      <c r="C2" s="0">
+        <v>5.5487713610258025</v>
+      </c>
+      <c r="D2" s="0">
+        <v>5.6894467244209874</v>
+      </c>
+      <c r="E2" s="0">
+        <v>6.0906525015049882</v>
+      </c>
+      <c r="F2" s="0">
+        <v>5.714771216086806</v>
+      </c>
+      <c r="G2" s="0">
+        <v>5.4692852848893816</v>
+      </c>
+      <c r="H2" s="0">
+        <v>5.5422640602023421</v>
+      </c>
+      <c r="I2" s="0">
+        <v>5.3433631624304976</v>
+      </c>
+      <c r="J2" s="0">
+        <v>5.3650544230755743</v>
+      </c>
+      <c r="K2" s="0">
+        <v>5.7804661871436505</v>
+      </c>
+      <c r="L2" s="0">
+        <v>5.6691235840843532</v>
+      </c>
+      <c r="M2" s="0">
+        <v>5.5931363020197065</v>
+      </c>
+      <c r="N2" s="0">
+        <v>5.438178622719569</v>
+      </c>
+      <c r="O2" s="0">
+        <v>5.4283838499277719</v>
+      </c>
+      <c r="P2" s="0">
+        <v>5.4772174766772421</v>
+      </c>
+      <c r="Q2" s="0">
+        <v>5.6048261019311427</v>
+      </c>
+      <c r="R2" s="0">
+        <v>5.6690658320671572</v>
+      </c>
+      <c r="S2" s="0">
+        <v>5.4838793166672835</v>
+      </c>
+      <c r="T2" s="0">
+        <v>5.9054598559275497</v>
+      </c>
+      <c r="U2" s="0">
+        <v>5.7856872766366614</v>
+      </c>
+      <c r="V2" s="0">
+        <v>5.9160244552986514</v>
+      </c>
+      <c r="W2" s="0">
+        <v>5.4149512554738699</v>
+      </c>
+      <c r="X2" s="0">
+        <v>5.3866625707266174</v>
+      </c>
+      <c r="Y2" s="0">
+        <v>5.5174176700491611</v>
+      </c>
+      <c r="Z2" s="0">
+        <v>5.8877381930584196</v>
+      </c>
+      <c r="AA2" s="0">
+        <v>5.6819186537077657</v>
+      </c>
+      <c r="AB2" s="0">
+        <v>5.5146889898179383</v>
+      </c>
+      <c r="AC2" s="0">
+        <v>5.4571805589873676</v>
+      </c>
+      <c r="AD2" s="0">
+        <v>5.6308852770299476</v>
+      </c>
+      <c r="AE2" s="0">
+        <v>5.4816551701946112</v>
+      </c>
+      <c r="AF2" s="0">
+        <v>5.6049712403514445</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.42132581522147788</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.42012226140655318</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.4155019454912704</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.41762861112586153</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.41802399020101055</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0.42332611971130552</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0.42396339443012493</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0.42189159855275621</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0.4186276725678495</v>
+      </c>
+      <c r="K3" s="0">
+        <v>0.42347911074641931</v>
+      </c>
+      <c r="L3" s="0">
+        <v>0.40657252583107123</v>
+      </c>
+      <c r="M3" s="0">
+        <v>0.41425666550838014</v>
+      </c>
+      <c r="N3" s="0">
+        <v>0.42605369411671368</v>
+      </c>
+      <c r="O3" s="0">
+        <v>0.42634091941976948</v>
+      </c>
+      <c r="P3" s="0">
+        <v>0.42078247251097822</v>
+      </c>
+      <c r="Q3" s="0">
+        <v>0.42457540225488855</v>
+      </c>
+      <c r="R3" s="0">
+        <v>0.43139980546215939</v>
+      </c>
+      <c r="S3" s="0">
+        <v>0.4154399365221384</v>
+      </c>
+      <c r="T3" s="0">
+        <v>0.41971499882421187</v>
+      </c>
+      <c r="U3" s="0">
+        <v>0.41917198031303005</v>
+      </c>
+      <c r="V3" s="0">
+        <v>0.42133192874714398</v>
+      </c>
+      <c r="W3" s="0">
+        <v>0.4274175629081377</v>
+      </c>
+      <c r="X3" s="0">
+        <v>0.41313065120975145</v>
+      </c>
+      <c r="Y3" s="0">
+        <v>0.40897665749230788</v>
+      </c>
+      <c r="Z3" s="0">
+        <v>0.41812309564234246</v>
+      </c>
+      <c r="AA3" s="0">
+        <v>0.42154779834367767</v>
+      </c>
+      <c r="AB3" s="0">
+        <v>0.4206217266029415</v>
+      </c>
+      <c r="AC3" s="0">
+        <v>0.42014786176144514</v>
+      </c>
+      <c r="AD3" s="0">
+        <v>0.43201913926793367</v>
+      </c>
+      <c r="AE3" s="0">
+        <v>0.40421198732647462</v>
+      </c>
+      <c r="AF3" s="0">
+        <v>0.41985757765067083</v>
       </c>
     </row>
   </sheetData>
